--- a/data/all_data.xlsx
+++ b/data/all_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="254">
   <si>
     <t>Имя</t>
   </si>
@@ -186,7 +186,7 @@
     <t>Karim48</t>
   </si>
   <si>
-    <t>fhn</t>
+    <t>Karim49</t>
   </si>
   <si>
     <t>Niggma0</t>
@@ -336,7 +336,7 @@
     <t>Niggma48</t>
   </si>
   <si>
-    <t>hev</t>
+    <t>Niggma49</t>
   </si>
   <si>
     <t>Vladov0</t>
@@ -486,7 +486,7 @@
     <t>Vladov48</t>
   </si>
   <si>
-    <t>cth</t>
+    <t>Vladov49</t>
   </si>
   <si>
     <t>st010900</t>
@@ -636,7 +636,7 @@
     <t>st010048</t>
   </si>
   <si>
-    <t>st077230</t>
+    <t>st010049</t>
   </si>
   <si>
     <t>FZ</t>
@@ -651,9 +651,6 @@
     <t>CHUM</t>
   </si>
   <si>
-    <t>abpbrf</t>
-  </si>
-  <si>
     <t>19.B05</t>
   </si>
   <si>
@@ -666,15 +663,15 @@
     <t>19.B18</t>
   </si>
   <si>
-    <t>sdf</t>
-  </si>
-  <si>
     <t>id_teacher</t>
   </si>
   <si>
     <t>Лабораторная группа</t>
   </si>
   <si>
+    <t>Serega</t>
+  </si>
+  <si>
     <t>Perega</t>
   </si>
   <si>
@@ -696,6 +693,18 @@
     <t>Perega6</t>
   </si>
   <si>
+    <t>Perega7</t>
+  </si>
+  <si>
+    <t>Perega8</t>
+  </si>
+  <si>
+    <t>bteh</t>
+  </si>
+  <si>
+    <t>Pirat</t>
+  </si>
+  <si>
     <t>Sirat</t>
   </si>
   <si>
@@ -717,6 +726,15 @@
     <t>Sirat6</t>
   </si>
   <si>
+    <t>Sirat7</t>
+  </si>
+  <si>
+    <t>Sirat8</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
     <t>Vladovich</t>
   </si>
   <si>
@@ -738,6 +756,15 @@
     <t>Vladovich6</t>
   </si>
   <si>
+    <t>Vladovich7</t>
+  </si>
+  <si>
+    <t>Vladovich8</t>
+  </si>
+  <si>
+    <t>hyr</t>
+  </si>
+  <si>
     <t>Название</t>
   </si>
   <si>
@@ -750,13 +777,7 @@
     <t>Гаусс</t>
   </si>
   <si>
-    <t>12312</t>
-  </si>
-  <si>
     <t>Термодинамика</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1184,7 @@
         <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1186,7 +1207,7 @@
         <v>207</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1209,7 +1230,7 @@
         <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1232,7 +1253,7 @@
         <v>207</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1255,7 +1276,7 @@
         <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1278,7 +1299,7 @@
         <v>207</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1301,7 +1322,7 @@
         <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1324,7 +1345,7 @@
         <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1347,7 +1368,7 @@
         <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1370,7 +1391,7 @@
         <v>208</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1393,7 +1414,7 @@
         <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1416,7 +1437,7 @@
         <v>208</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1439,7 +1460,7 @@
         <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1462,7 +1483,7 @@
         <v>208</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1485,7 +1506,7 @@
         <v>208</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1508,7 +1529,7 @@
         <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1531,7 +1552,7 @@
         <v>208</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1554,7 +1575,7 @@
         <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1577,7 +1598,7 @@
         <v>208</v>
       </c>
       <c r="G20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1600,7 +1621,7 @@
         <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1623,7 +1644,7 @@
         <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1646,7 +1667,7 @@
         <v>208</v>
       </c>
       <c r="G23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1669,7 +1690,7 @@
         <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1692,7 +1713,7 @@
         <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1715,7 +1736,7 @@
         <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1738,7 +1759,7 @@
         <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1761,7 +1782,7 @@
         <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1784,7 +1805,7 @@
         <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1807,7 +1828,7 @@
         <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1830,7 +1851,7 @@
         <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1853,7 +1874,7 @@
         <v>209</v>
       </c>
       <c r="G32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1876,7 +1897,7 @@
         <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1899,7 +1920,7 @@
         <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1922,7 +1943,7 @@
         <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1945,7 +1966,7 @@
         <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1968,7 +1989,7 @@
         <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1991,7 +2012,7 @@
         <v>210</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2014,7 +2035,7 @@
         <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2037,7 +2058,7 @@
         <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2060,7 +2081,7 @@
         <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2083,7 +2104,7 @@
         <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2106,7 +2127,7 @@
         <v>210</v>
       </c>
       <c r="G43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2129,7 +2150,7 @@
         <v>210</v>
       </c>
       <c r="G44" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2152,7 +2173,7 @@
         <v>210</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2175,7 +2196,7 @@
         <v>210</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2198,7 +2219,7 @@
         <v>210</v>
       </c>
       <c r="G47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2221,7 +2242,7 @@
         <v>210</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2244,7 +2265,7 @@
         <v>210</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2267,7 +2288,7 @@
         <v>210</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2287,10 +2308,10 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2300,7 +2321,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2317,124 +2338,174 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="C9" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
     </row>
@@ -2445,7 +2516,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2453,35 +2524,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
